--- a/08mm_08_30/Auswertung.xlsx
+++ b/08mm_08_30/Auswertung.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony\Projects\pyt_Semi\08mm_08_30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDBECCA-A647-4000-A1A5-6AE8FD08BC18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD5D8A5-5EDC-4AA1-B9FB-762AF05479F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4070" yWindow="4070" windowWidth="14400" windowHeight="7520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Messung01" sheetId="1" r:id="rId1"/>
     <sheet name="Messung02" sheetId="3" r:id="rId2"/>
-    <sheet name="Vergleich" sheetId="2" r:id="rId3"/>
+    <sheet name="VGL" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Fliessgeschwindigkeit [m/s]</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Stroemungswiderstand [N]</t>
-  </si>
-  <si>
-    <t>experimentell</t>
   </si>
   <si>
     <t>analytisch</t>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>R²</t>
@@ -95,13 +89,7 @@
     <t>C0019</t>
   </si>
   <si>
-    <t>C0021</t>
-  </si>
-  <si>
     <t>C0022</t>
-  </si>
-  <si>
-    <t>C0024</t>
   </si>
   <si>
     <t>Geschwindigkeit [m/s]</t>
@@ -114,6 +102,12 @@
   </si>
   <si>
     <t>Berechnung</t>
+  </si>
+  <si>
+    <t>experimentell 1</t>
+  </si>
+  <si>
+    <t>experimentell 2</t>
   </si>
 </sst>
 </file>
@@ -521,10 +515,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Messung01!$F$3:$F$12</c:f>
+              <c:f>Messung01!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42.465564157621152</c:v>
                 </c:pt>
@@ -547,23 +541,17 @@
                   <c:v>133.36405343524638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169.86225663048418</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>231.20140485815892</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>332.93002299574982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messung01!$G$3:$G$12</c:f>
+              <c:f>Messung01!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.4909602954629715</c:v>
                 </c:pt>
@@ -586,13 +574,7 @@
                   <c:v>3.6752616001779281</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1257422745431001E-17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.1257422745431001E-17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1257422745431001E-17</c:v>
+                  <c:v>5.8810764844181911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,10 +1030,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Messung01!$A$2:$A$12</c:f>
+              <c:f>Messung01!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1077,55 +1059,43 @@
                   <c:v>8.6592565456334203E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.67275896448531E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>6.5766505409874096E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.4805421174895001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Messung01!$D$2:$D$12</c:f>
+              <c:f>Messung01!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.00E+00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.161325130186691E-2</c:v>
+                  <c:v>3.8985252583204561E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0013466683752588E-2</c:v>
+                  <c:v>3.361483513551821E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.5321846299430352E-3</c:v>
+                  <c:v>2.8642226387660492E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.1694051404382446E-3</c:v>
+                  <c:v>2.4067426339631388E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.0442232923645185E-3</c:v>
+                  <c:v>2.0290232734758696E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.9065986750387782E-3</c:v>
+                  <c:v>1.6471269216403956E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.6978725191301812E-3</c:v>
+                  <c:v>1.2413620478152053E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.9033128254667348E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.1330461574857649E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.4812820538095547E-3</c:v>
+                  <c:v>7.1605565969151447E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,6 +1426,438 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messung02!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/tanA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messung02!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42.465564157621152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.800351214539909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.787194833832615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.592496567922069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.51021102395521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.36405343524638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169.86225663048418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231.20140485815892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>332.93002299574982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messung02!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.9953704777972425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.323011863414735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6088718628308945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8217840860884102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.145331546833587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6232882816735734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.54546154990636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5280965061647009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0542807985462188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECD2-4EDC-A577-291BD5D1FACF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="473091312"/>
+        <c:axId val="473091640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="473091312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>1/v2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473091640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="473091640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>1/tanA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473091312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -1547,7 +1949,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich!$B$3:$B$13</c:f>
+              <c:f>VGL!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1589,39 +1991,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich!$C$3:$C$13</c:f>
+              <c:f>VGL!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.4513980224920599E-3</c:v>
+                  <c:v>3.8985252583204587E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1137054377610128E-3</c:v>
+                  <c:v>3.3614835135518236E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8010271185655996E-3</c:v>
+                  <c:v>2.8642226387660509E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5133630649058188E-3</c:v>
+                  <c:v>2.4067426339631401E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2507132767816708E-3</c:v>
+                  <c:v>1.9890434991430912E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0130777541931533E-3</c:v>
+                  <c:v>1.6111252343059003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0045649714027085E-4</c:v>
+                  <c:v>1.2729878394515753E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1284950562302126E-4</c:v>
+                  <c:v>9.7463131458011228E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5025677964140418E-4</c:v>
+                  <c:v>7.1605565969151057E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1267831919541884E-4</c:v>
+                  <c:v>4.9726087478576912E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>0</c:v>
@@ -1666,7 +2068,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich!$B$3:$B$13</c:f>
+              <c:f>VGL!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1708,7 +2110,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich!$D$3:$D$13</c:f>
+              <c:f>VGL!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1785,7 +2187,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Vergleich!$B$3:$B$13</c:f>
+              <c:f>VGL!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1827,7 +2229,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vergleich!$E$3:$E$13</c:f>
+              <c:f>VGL!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1871,6 +2273,125 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9296-4C9A-81D1-8B366663834A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Experimentelle Werte II</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VGL!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15345517928970601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14249409505472699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.131533010819748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12057192658476901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10961084234979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8649758114810901E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7688673879831897E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6727589644852906E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5766505409873902E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.48054211748948E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VGL!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.1650909812873445E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.591328448150822E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0600668433947834E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5713061670192281E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1250464190241554E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7212875994095623E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3600297081754562E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0412727453218335E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6501671084869358E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3126160475603496E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EDC-48B2-8645-6E5468C5446E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2342,6 +2863,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3375,6 +3936,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3896,13 +4973,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>78557</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>31423</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3932,13 +5009,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1304042</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>6351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>459676</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>39279</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3971,13 +5048,54 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>803275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC164ED-D577-4A57-86E1-0E3351C49255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>20320</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -4329,23 +5447,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4359,18 +5477,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="5"/>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -4384,14 +5502,14 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0.15345517928970601</v>
       </c>
@@ -4402,8 +5520,8 @@
         <v>1.4587000000000001</v>
       </c>
       <c r="D3" s="7">
-        <f>((9.81*0.0003994)/$F$16)*A3^2</f>
-        <v>-1.161325130186691E-2</v>
+        <f t="shared" ref="D3:D10" si="0">((9.81*0.0003994)/$F$14)*A3^2</f>
+        <v>3.8985252583204561E-3</v>
       </c>
       <c r="F3">
         <f>1/(A3^2)</f>
@@ -4414,13 +5532,13 @@
         <v>1.4909602954629715</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>0.14249409505472699</v>
       </c>
@@ -4431,8 +5549,8 @@
         <v>1.5771999999999999</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D12" si="0">((9.81*0.0003994)/$F$16)*A4^2</f>
-        <v>-1.0013466683752588E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.361483513551821E-3</v>
       </c>
       <c r="F4">
         <f>1/(A4^2)</f>
@@ -4443,13 +5561,13 @@
         <v>1.6532142654646251</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>0.131533010819748</v>
       </c>
@@ -4461,24 +5579,24 @@
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>-8.5321846299430352E-3</v>
+        <v>2.8642226387660492E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F12" si="1">1/(A5^2)</f>
+        <f t="shared" ref="F5:F10" si="1">1/(A5^2)</f>
         <v>57.800351214539909</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G11" si="2">1/TAN(RADIANS(90-B5))</f>
+        <f t="shared" ref="G5:G10" si="2">1/TAN(RADIANS(90-B5))</f>
         <v>1.7645897244980095</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>0.12057192658476901</v>
       </c>
@@ -4490,7 +5608,7 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>-7.1694051404382446E-3</v>
+        <v>2.4067426339631388E-3</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -4501,13 +5619,13 @@
         <v>1.9809262122229865</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>0.110706950773288</v>
       </c>
@@ -4519,7 +5637,7 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>-6.0442232923645185E-3</v>
+        <v>2.0290232734758696E-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -4530,13 +5648,13 @@
         <v>2.1422125322648422</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>9.9745866538308997E-2</v>
       </c>
@@ -4548,7 +5666,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>-4.9065986750387782E-3</v>
+        <v>1.6471269216403956E-3</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
@@ -4559,13 +5677,13 @@
         <v>2.5425511374943772</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8.6592565456334203E-2</v>
       </c>
@@ -4577,7 +5695,7 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>-3.6978725191301812E-3</v>
+        <v>1.2413620478152053E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -4588,110 +5706,69 @@
         <v>3.6752616001779281</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
-        <v>7.67275896448531E-2</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+        <v>6.5766505409874096E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>80.349900000000005</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.70750000000000002</v>
+      </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>-2.9033128254667348E-3</v>
+        <v>7.1605565969151447E-4</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>169.86225663048418</v>
+        <v>231.20140485815892</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
+        <v>5.8810764844181911</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>6.5766505409874096E-2</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.1330461574857649E-3</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>231.20140485815892</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
-        <v>5.4805421174895001E-2</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>-1.4812820538095547E-3</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>332.93002299574982</v>
-      </c>
-      <c r="G12">
-        <f>1/TAN(RADIANS(90-B12))</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>2.36668150825366E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="F13" s="4"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F16">
-        <f t="array" ref="F16">LINEST(G3:G12,F3:F12,TRUE,FALSE)</f>
-        <v>-7.9448617777207828E-3</v>
-      </c>
-      <c r="G16">
-        <f>(PEARSON(F3:F12,G3:G12))^2</f>
-        <v>0.37623757991087542</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f t="array" ref="F14">LINEST(G3:G10,F3:F10,TRUE,FALSE)</f>
+        <v>2.3666815082536614E-2</v>
+      </c>
+      <c r="G14">
+        <f>(PEARSON(F3:F10,G3:G10))^2</f>
+        <v>0.99222339385045111</v>
       </c>
     </row>
   </sheetData>
@@ -4706,21 +5783,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D6C7E2-67B9-49E0-B037-0357366C7B2C}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4734,12 +5812,12 @@
         <v>3</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -4753,22 +5831,26 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>0.15345517928970601</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1">
+        <v>63.381799999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.5819000000000001</v>
+      </c>
       <c r="D3" s="7">
-        <f>((9.81*0.0003994)/0.0252)*A3^2</f>
-        <v>3.6613363644154178E-3</v>
+        <f>((9.81*0.0003994)/$F$15)*A3^2</f>
+        <v>4.1650909812873515E-3</v>
       </c>
       <c r="F3">
         <f>1/(A3^2)</f>
@@ -4776,207 +5858,216 @@
       </c>
       <c r="G3">
         <f>1/TAN(RADIANS(90-B3))</f>
-        <v>6.1257422745431001E-17</v>
+        <v>1.9953704777972425</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>0.14249409505472699</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+        <v>0.131533010819748</v>
+      </c>
+      <c r="B4" s="1">
+        <v>66.709299999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0822000000000001</v>
+      </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:D12" si="0">((9.81*0.0003994)/0.0252)*A4^2</f>
-        <v>3.1569685999296199E-3</v>
+        <f t="shared" ref="D4:D11" si="0">((9.81*0.0003994)/$F$15)*A4^2</f>
+        <v>3.0600668433947882E-3</v>
       </c>
       <c r="F4">
-        <f>1/(A4^2)</f>
-        <v>49.250003401738148</v>
+        <f t="shared" ref="F4:F11" si="1">1/(A4^2)</f>
+        <v>57.800351214539909</v>
       </c>
       <c r="G4">
         <f>1/TAN(RADIANS(90-B4))</f>
-        <v>6.1257422745431001E-17</v>
+        <v>2.323011863414735</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>0.131533010819748</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+        <v>0.12057192658476901</v>
+      </c>
+      <c r="B5" s="1">
+        <v>69.027799999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.57830000000000004</v>
+      </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>2.6899614105909187E-3</v>
+        <v>2.5713061670192324E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F12" si="1">1/(A5^2)</f>
-        <v>57.800351214539909</v>
+        <f t="shared" si="1"/>
+        <v>68.787194833832615</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G11" si="2">1/TAN(RADIANS(90-B5))</f>
-        <v>6.1257422745431001E-17</v>
+        <f>1/TAN(RADIANS(90-B5))</f>
+        <v>2.6088718628308945</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>0.12057192658476901</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+        <v>0.110706950773288</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70.486400000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.76390000000000002</v>
+      </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>2.2603147963993139E-3</v>
+        <v>2.1677598520465483E-3</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>68.787194833832615</v>
+        <v>81.592496567922069</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
+        <f>1/TAN(RADIANS(90-B6))</f>
+        <v>2.8217840860884102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>0.110706950773288</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+        <v>9.9745866538308997E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>72.362899999999996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.93210000000000004</v>
+      </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>1.9055761353776401E-3</v>
+        <v>1.759750939593909E-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>81.592496567922069</v>
+        <v>100.51021102395521</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
+        <f>1/TAN(RADIANS(90-B7))</f>
+        <v>3.145331546833587</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>9.9745866538308997E-2</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+        <v>8.6592565456334203E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>74.570899999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.61529999999999996</v>
+      </c>
       <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>1.5469146139655168E-3</v>
+        <v>1.3262414701129806E-3</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>100.51021102395521</v>
+        <v>133.36405343524638</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
+        <f>1/TAN(RADIANS(90-B8))</f>
+        <v>3.6232882816735734</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>8.6592565456334203E-2</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+        <v>7.67275896448531E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>77.592600000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.65769999999999995</v>
+      </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>1.1658367474651366E-3</v>
+        <v>1.0412727453218405E-3</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>133.36405343524638</v>
+        <v>169.86225663048418</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
+        <f>1/TAN(RADIANS(90-B9))</f>
+        <v>4.54546154990636</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>7.67275896448531E-2</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+        <v>6.5766505409874096E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>77.546499999999995</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.5363</v>
+      </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>9.1533409110385673E-4</v>
+        <v>7.6501671084869944E-4</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>169.86225663048418</v>
+        <v>231.20140485815892</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
+        <f>1/TAN(RADIANS(90-B10))</f>
+        <v>4.5280965061647009</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
-        <v>6.5766505409874096E-2</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>5.4805421174895001E-2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>80.620999999999995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.69969999999999999</v>
+      </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>6.7249035264773174E-4</v>
+        <v>5.3126160475603973E-4</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>231.20140485815892</v>
+        <v>332.93002299574982</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-17</v>
+        <f>1/TAN(RADIANS(90-B11))</f>
+        <v>6.0542807985462188</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6">
-        <v>5.4805421174895001E-2</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>4.6700718933870126E-4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>332.93002299574982</v>
-      </c>
-      <c r="G12">
-        <f>1/TAN(RADIANS(90-B12))</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="F13" s="4"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F16">
-        <v>2.52E-2</v>
-      </c>
-      <c r="G16">
-        <v>1.6778</v>
-      </c>
-      <c r="H16">
-        <v>0.98440000000000005</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f t="array" ref="F15">LINEST(G3:G11,F3:F11,FALSE,TRUE)</f>
+        <v>2.2152139484537967E-2</v>
+      </c>
+      <c r="G15">
+        <f>(PEARSON(F3:F11,G3:G11))^2</f>
+        <v>0.96098807389996832</v>
       </c>
     </row>
   </sheetData>
@@ -4984,51 +6075,56 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F3385-8AE3-4479-AC98-5F00D49C7B32}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>14</v>
       </c>
@@ -5036,16 +6132,21 @@
         <v>0.15345517928970601</v>
       </c>
       <c r="C3" s="3">
-        <v>2.4513980224920599E-3</v>
+        <f>((9.81*0.0003994)/0.0236668150825366)*B3^2</f>
+        <v>3.8985252583204587E-3</v>
       </c>
       <c r="D3" s="3">
+        <f>((9.81*0.0003994)/0.022152139484538)*B3^2</f>
+        <v>4.1650909812873445E-3</v>
+      </c>
+      <c r="E3" s="3">
         <v>2.4830551074996005E-4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>3.8180000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>13</v>
       </c>
@@ -5053,16 +6154,21 @@
         <v>0.14249409505472699</v>
       </c>
       <c r="C4" s="3">
-        <v>2.1137054377610128E-3</v>
+        <f t="shared" ref="C4:C12" si="0">((9.81*0.0003994)/0.0236668150825366)*B4^2</f>
+        <v>3.3614835135518236E-3</v>
       </c>
       <c r="D4" s="3">
+        <f t="shared" ref="D4:D13" si="1">((9.81*0.0003994)/0.022152139484538)*B4^2</f>
+        <v>3.591328448150822E-3</v>
+      </c>
+      <c r="E4" s="3">
         <v>2.1486757418308046E-4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>3.4518E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>12</v>
       </c>
@@ -5070,16 +6176,21 @@
         <v>0.131533010819748</v>
       </c>
       <c r="C5" s="3">
-        <v>1.8010271185655996E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.8642226387660509E-3</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0600668433947834E-3</v>
+      </c>
+      <c r="E5" s="3">
         <v>1.8384530356330348E-4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>3.0953000000000003E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>11</v>
       </c>
@@ -5087,16 +6198,21 @@
         <v>0.12057192658476901</v>
       </c>
       <c r="C6" s="3">
-        <v>1.5133630649058188E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.4067426339631401E-3</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5713061670192281E-3</v>
+      </c>
+      <c r="E6" s="3">
         <v>1.5523869889062938E-4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>2.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>10</v>
       </c>
@@ -5104,16 +6220,21 @@
         <v>0.10961084234979</v>
       </c>
       <c r="C7" s="3">
-        <v>1.2507132767816708E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.9890434991430912E-3</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1250464190241554E-3</v>
+      </c>
+      <c r="E7" s="3">
         <v>1.2904776016505807E-4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>2.4153999999999999E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>9</v>
       </c>
@@ -5121,16 +6242,21 @@
         <v>9.8649758114810901E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0130777541931533E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.6111252343059003E-3</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7212875994095623E-3</v>
+      </c>
+      <c r="E8" s="3">
         <v>1.0527248738658959E-4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2.0932000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5138,16 +6264,21 @@
         <v>8.7688673879831897E-2</v>
       </c>
       <c r="C9" s="3">
-        <v>8.0045649714027085E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.2729878394515753E-3</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3600297081754562E-3</v>
+      </c>
+      <c r="E9" s="3">
         <v>8.3912880555223957E-5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1.7834E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -5155,16 +6286,21 @@
         <v>7.6727589644852906E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>6.1284950562302126E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.7463131458011228E-4</v>
       </c>
       <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0412727453218335E-3</v>
+      </c>
+      <c r="E10" s="3">
         <v>6.4968939670961097E-5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1.4861E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -5172,16 +6308,21 @@
         <v>6.5766505409873902E-2</v>
       </c>
       <c r="C11" s="3">
-        <v>4.5025677964140418E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.1605565969151057E-4</v>
       </c>
       <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6501671084869358E-4</v>
+      </c>
+      <c r="E11" s="3">
         <v>4.8440664733801082E-5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>1.2032E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>5</v>
       </c>
@@ -5189,16 +6330,21 @@
         <v>5.48054211748948E-2</v>
       </c>
       <c r="C12" s="3">
-        <v>3.1267831919541884E-4</v>
+        <f t="shared" si="0"/>
+        <v>4.9726087478576912E-4</v>
       </c>
       <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3126160475603496E-4</v>
+      </c>
+      <c r="E12" s="3">
         <v>3.4328055743743857E-5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9.3508E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>0</v>
       </c>
@@ -5208,29 +6354,35 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="21"/>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
